--- a/data/rpe_primera.xlsx
+++ b/data/rpe_primera.xlsx
@@ -11,30 +11,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Marca temporal</t>
-  </si>
-  <si>
-    <t>Día de la semana</t>
-  </si>
-  <si>
-    <t>Nombre del Jugador</t>
-  </si>
-  <si>
-    <t>RPE de la sesión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizaste activación, movilidad, foamroller o preventivos antes del entrenamiento? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiciste alguna estrategia de recuperación después de entrenar? </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="45">
+  <si>
+    <t>Column 1</t>
+  </si>
+  <si>
+    <t>Column 2</t>
+  </si>
+  <si>
+    <t>Column 3</t>
+  </si>
+  <si>
+    <t>Column 4</t>
+  </si>
+  <si>
+    <t>Column 5</t>
+  </si>
+  <si>
+    <t>Column 6</t>
+  </si>
+  <si>
+    <t>Column 7</t>
+  </si>
+  <si>
+    <t>Column 8</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Néstor Araujo</t>
+  </si>
+  <si>
+    <t>3 moderado</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Miguel Vázquez</t>
+  </si>
+  <si>
+    <t>4 algo duro</t>
+  </si>
+  <si>
+    <t>Ralph Orquín</t>
+  </si>
+  <si>
+    <t>Isaías Violante</t>
+  </si>
+  <si>
+    <t>Alan Cervantes</t>
+  </si>
+  <si>
+    <t>Igor Lichnovsky</t>
+  </si>
+  <si>
+    <t>Ramón Juárez</t>
+  </si>
+  <si>
+    <t>6 más que duro</t>
+  </si>
+  <si>
+    <t>Cristian Borja</t>
+  </si>
+  <si>
+    <t>Sebastián Cáceres</t>
+  </si>
+  <si>
+    <t>5 duro</t>
+  </si>
+  <si>
+    <t>Israel Reyes</t>
+  </si>
+  <si>
+    <t>7 muy duro</t>
+  </si>
+  <si>
+    <t>Víctor Dávila</t>
+  </si>
+  <si>
+    <t>Rodolfo Cota</t>
+  </si>
+  <si>
+    <t>2 fácil</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Alejando Zendejas</t>
+  </si>
+  <si>
+    <t>Luis Malagon</t>
+  </si>
+  <si>
+    <t>Santiago Naveda</t>
+  </si>
+  <si>
+    <t>Brian Rodríguez</t>
+  </si>
+  <si>
+    <t>Rodrigo Aguirre</t>
+  </si>
+  <si>
+    <t>Álvaro Fidalgo</t>
+  </si>
+  <si>
+    <t>Erick Sánchez</t>
+  </si>
+  <si>
+    <t>José Raúl Zuñiga</t>
+  </si>
+  <si>
+    <t>Allan Saint-Maximin</t>
+  </si>
+  <si>
+    <t>Alexis Gutiérrez</t>
+  </si>
+  <si>
+    <t>Patricio Salas</t>
+  </si>
+  <si>
+    <t>Kevin Álvarez</t>
+  </si>
+  <si>
+    <t>Henry Martín</t>
+  </si>
+  <si>
+    <t>Diego Arriaga</t>
+  </si>
+  <si>
+    <t>Diego Reyes</t>
+  </si>
+  <si>
+    <t>8 muy muy duro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/MM/yyyy H:mm:ss"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -62,21 +182,39 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
     <dxf>
       <font/>
       <fill>
@@ -130,6 +268,26 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle count="4" pivot="0" name="Respuestas de formulario 1-style">
@@ -147,21 +305,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:F1" displayName="Form_Responses" name="Form_Responses" id="1">
-  <tableColumns count="6">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
-    <tableColumn name="Column5" id="5"/>
-    <tableColumn name="Column6" id="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H151" displayName="Form_Responses" name="Form_Responses" id="1">
+  <tableColumns count="8">
+    <tableColumn name="Column 1" id="1"/>
+    <tableColumn name="Column 2" id="2"/>
+    <tableColumn name="Column 3" id="3"/>
+    <tableColumn name="Column 4" id="4"/>
+    <tableColumn name="Column 5" id="5"/>
+    <tableColumn name="Column 6" id="6"/>
+    <tableColumn name="Column 7" id="7"/>
+    <tableColumn name="Column 8" id="8"/>
   </tableColumns>
   <tableStyleInfo name="Respuestas de formulario 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
-    </ext>
-  </extLst>
 </table>
 </file>
 
@@ -363,6 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -375,8 +531,9 @@
     <col customWidth="1" min="1" max="2" width="18.88"/>
     <col customWidth="1" min="3" max="3" width="20.25"/>
     <col customWidth="1" min="4" max="4" width="18.88"/>
-    <col customWidth="1" min="5" max="6" width="37.63"/>
-    <col customWidth="1" min="7" max="12" width="18.88"/>
+    <col customWidth="1" hidden="1" min="5" max="5" width="37.63"/>
+    <col customWidth="1" min="6" max="8" width="37.63"/>
+    <col customWidth="1" min="9" max="14" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
@@ -398,8 +555,1767 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="3">
+        <v>46013.436431678245</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f t="shared" ref="E2:E52" si="1">left(D2)</f>
+        <v>3</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F52" si="2">E2*1</f>
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" customHeight="1">
+      <c r="A3" s="5">
+        <v>46013.43688310185</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" customHeight="1">
+      <c r="A4" s="5">
+        <v>46013.43704454861</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1">
+      <c r="A5" s="5">
+        <v>46013.437277812496</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1">
+      <c r="A6" s="5">
+        <v>46013.43758578703</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="22.5" customHeight="1">
+      <c r="A7" s="5">
+        <v>46013.438136157405</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="A8" s="5">
+        <v>46013.438667361115</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="22.5" customHeight="1">
+      <c r="A9" s="5">
+        <v>46013.438862627314</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" s="5">
+        <v>46013.443182627314</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="22.5" customHeight="1">
+      <c r="A11" s="5">
+        <v>46013.44361766204</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="1">
+      <c r="A12" s="5">
+        <v>46013.46276692129</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="22.5" customHeight="1">
+      <c r="A13" s="5">
+        <v>46013.463303136574</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1">
+      <c r="A14" s="5">
+        <v>46013.46527138889</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="5">
+        <v>46013.46641356482</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" s="5">
+        <v>46013.46667349537</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="A17" s="5">
+        <v>46013.467105358795</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" ht="22.5" customHeight="1">
+      <c r="A18" s="5">
+        <v>46013.467613298606</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="A19" s="5">
+        <v>46013.46878451389</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" ht="22.5" customHeight="1">
+      <c r="A20" s="5">
+        <v>46013.46966179398</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="22.5" customHeight="1">
+      <c r="A21" s="5">
+        <v>46013.47055857639</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" ht="22.5" customHeight="1">
+      <c r="A22" s="5">
+        <v>46013.47184474537</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="22.5" customHeight="1">
+      <c r="A23" s="5">
+        <v>46013.47246322916</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" ht="22.5" customHeight="1">
+      <c r="A24" s="5">
+        <v>46013.47300650463</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" ht="22.5" customHeight="1">
+      <c r="A25" s="5">
+        <v>46013.48124641203</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" ht="22.5" customHeight="1">
+      <c r="A26" s="5">
+        <v>46013.48214115741</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" ht="22.5" customHeight="1">
+      <c r="A27" s="5">
+        <v>46013.482916990746</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" ht="22.5" customHeight="1">
+      <c r="A28" s="5">
+        <v>46013.5183987037</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" ht="22.5" customHeight="1">
+      <c r="A29" s="5">
+        <v>46013.529549756946</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" ht="22.5" customHeight="1">
+      <c r="A30" s="5">
+        <v>46013.74579298611</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" ht="22.5" customHeight="1">
+      <c r="A31" s="5">
+        <v>46013.74636309028</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" ht="22.5" customHeight="1">
+      <c r="A32" s="5">
+        <v>46013.74669550926</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" ht="22.5" customHeight="1">
+      <c r="A33" s="5">
+        <v>46013.74705899306</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" ht="22.5" customHeight="1">
+      <c r="A34" s="5">
+        <v>46013.74737549768</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" ht="22.5" customHeight="1">
+      <c r="A35" s="5">
+        <v>46013.74825586806</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" ht="22.5" customHeight="1">
+      <c r="A36" s="5">
+        <v>46013.74908553241</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" ht="22.5" customHeight="1">
+      <c r="A37" s="5">
+        <v>46013.74933291667</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" ht="22.5" customHeight="1">
+      <c r="A38" s="5">
+        <v>46013.74969459491</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" ht="22.5" customHeight="1">
+      <c r="A39" s="5">
+        <v>46013.750061134255</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F39" s="7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" ht="22.5" customHeight="1">
+      <c r="A40" s="5">
+        <v>46013.75041559028</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F40" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" ht="22.5" customHeight="1">
+      <c r="A41" s="5">
+        <v>46013.75063840278</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F41" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" ht="22.5" customHeight="1">
+      <c r="A42" s="5">
+        <v>46013.751155335645</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" ht="22.5" customHeight="1">
+      <c r="A43" s="5">
+        <v>46013.75141506945</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F43" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" ht="22.5" customHeight="1">
+      <c r="A44" s="5">
+        <v>46013.751750208336</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F44" s="7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" ht="22.5" customHeight="1">
+      <c r="A45" s="5">
+        <v>46013.753565266205</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F45" s="7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" ht="22.5" customHeight="1">
+      <c r="A46" s="5">
+        <v>46013.75420954861</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F46" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" ht="22.5" customHeight="1">
+      <c r="A47" s="5">
+        <v>46013.75463383102</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F47" s="7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" ht="22.5" customHeight="1">
+      <c r="A48" s="5">
+        <v>46013.75532391203</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F48" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" ht="22.5" customHeight="1">
+      <c r="A49" s="5">
+        <v>46013.75765197916</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F49" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" ht="22.5" customHeight="1">
+      <c r="A50" s="5">
+        <v>46013.75827232639</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F50" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" ht="22.5" customHeight="1">
+      <c r="A51" s="5">
+        <v>46013.75899987268</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F51" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" ht="22.5" customHeight="1">
+      <c r="A52" s="5">
+        <v>46013.75937878472</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F52" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" ht="22.5" customHeight="1">
+      <c r="A53" s="8"/>
+    </row>
+    <row r="54" ht="22.5" customHeight="1">
+      <c r="A54" s="8"/>
+    </row>
+    <row r="55" ht="22.5" customHeight="1">
+      <c r="A55" s="8"/>
+    </row>
+    <row r="56" ht="22.5" customHeight="1">
+      <c r="A56" s="8"/>
+    </row>
+    <row r="57" ht="22.5" customHeight="1">
+      <c r="A57" s="8"/>
+    </row>
+    <row r="58" ht="22.5" customHeight="1">
+      <c r="A58" s="8"/>
+    </row>
+    <row r="59" ht="22.5" customHeight="1">
+      <c r="A59" s="8"/>
+    </row>
+    <row r="60" ht="22.5" customHeight="1">
+      <c r="A60" s="8"/>
+    </row>
+    <row r="61" ht="22.5" customHeight="1">
+      <c r="A61" s="8"/>
+    </row>
+    <row r="62" ht="22.5" customHeight="1">
+      <c r="A62" s="8"/>
+    </row>
+    <row r="63" ht="22.5" customHeight="1">
+      <c r="A63" s="8"/>
+    </row>
+    <row r="64" ht="22.5" customHeight="1">
+      <c r="A64" s="8"/>
+    </row>
+    <row r="65" ht="22.5" customHeight="1">
+      <c r="A65" s="8"/>
+    </row>
+    <row r="66" ht="22.5" customHeight="1">
+      <c r="A66" s="8"/>
+    </row>
+    <row r="67" ht="22.5" customHeight="1">
+      <c r="A67" s="8"/>
+    </row>
+    <row r="68" ht="22.5" customHeight="1">
+      <c r="A68" s="8"/>
+    </row>
+    <row r="69" ht="22.5" customHeight="1">
+      <c r="A69" s="8"/>
+    </row>
+    <row r="70" ht="22.5" customHeight="1">
+      <c r="A70" s="8"/>
+    </row>
+    <row r="71" ht="22.5" customHeight="1">
+      <c r="A71" s="8"/>
+    </row>
+    <row r="72" ht="22.5" customHeight="1">
+      <c r="A72" s="8"/>
+    </row>
+    <row r="73" ht="22.5" customHeight="1">
+      <c r="A73" s="8"/>
+    </row>
+    <row r="74" ht="22.5" customHeight="1">
+      <c r="A74" s="8"/>
+    </row>
+    <row r="75" ht="22.5" customHeight="1">
+      <c r="A75" s="8"/>
+    </row>
+    <row r="76" ht="22.5" customHeight="1">
+      <c r="A76" s="8"/>
+    </row>
+    <row r="77" ht="22.5" customHeight="1">
+      <c r="A77" s="8"/>
+    </row>
+    <row r="78" ht="22.5" customHeight="1">
+      <c r="A78" s="8"/>
+    </row>
+    <row r="79" ht="22.5" customHeight="1">
+      <c r="A79" s="8"/>
+    </row>
+    <row r="80" ht="22.5" customHeight="1">
+      <c r="A80" s="8"/>
+    </row>
+    <row r="81" ht="22.5" customHeight="1">
+      <c r="A81" s="8"/>
+    </row>
+    <row r="82" ht="22.5" customHeight="1">
+      <c r="A82" s="8"/>
+    </row>
+    <row r="83" ht="22.5" customHeight="1">
+      <c r="A83" s="8"/>
+    </row>
+    <row r="84" ht="22.5" customHeight="1">
+      <c r="A84" s="8"/>
+    </row>
+    <row r="85" ht="22.5" customHeight="1">
+      <c r="A85" s="8"/>
+    </row>
+    <row r="86" ht="22.5" customHeight="1">
+      <c r="A86" s="8"/>
+    </row>
+    <row r="87" ht="22.5" customHeight="1">
+      <c r="A87" s="8"/>
+    </row>
+    <row r="88" ht="22.5" customHeight="1">
+      <c r="A88" s="8"/>
+    </row>
+    <row r="89" ht="22.5" customHeight="1">
+      <c r="A89" s="8"/>
+    </row>
+    <row r="90" ht="22.5" customHeight="1">
+      <c r="A90" s="8"/>
+    </row>
+    <row r="91" ht="22.5" customHeight="1">
+      <c r="A91" s="8"/>
+    </row>
+    <row r="92" ht="22.5" customHeight="1">
+      <c r="A92" s="8"/>
+    </row>
+    <row r="93" ht="22.5" customHeight="1">
+      <c r="A93" s="8"/>
+    </row>
+    <row r="94" ht="22.5" customHeight="1">
+      <c r="A94" s="8"/>
+    </row>
+    <row r="95" ht="22.5" customHeight="1">
+      <c r="A95" s="8"/>
+    </row>
+    <row r="96" ht="22.5" customHeight="1">
+      <c r="A96" s="8"/>
+    </row>
+    <row r="97" ht="22.5" customHeight="1">
+      <c r="A97" s="8"/>
+    </row>
+    <row r="98" ht="22.5" customHeight="1">
+      <c r="A98" s="8"/>
+    </row>
+    <row r="99" ht="22.5" customHeight="1">
+      <c r="A99" s="8"/>
+    </row>
+    <row r="100" ht="22.5" customHeight="1">
+      <c r="A100" s="8"/>
+    </row>
+    <row r="101" ht="22.5" customHeight="1">
+      <c r="A101" s="8"/>
+    </row>
+    <row r="102" ht="22.5" customHeight="1">
+      <c r="A102" s="8"/>
+    </row>
+    <row r="103" ht="22.5" customHeight="1">
+      <c r="A103" s="8"/>
+    </row>
+    <row r="104" ht="22.5" customHeight="1">
+      <c r="A104" s="8"/>
+    </row>
+    <row r="105" ht="22.5" customHeight="1">
+      <c r="A105" s="8"/>
+    </row>
+    <row r="106" ht="22.5" customHeight="1">
+      <c r="A106" s="8"/>
+    </row>
+    <row r="107" ht="22.5" customHeight="1">
+      <c r="A107" s="8"/>
+    </row>
+    <row r="108" ht="22.5" customHeight="1">
+      <c r="A108" s="8"/>
+    </row>
+    <row r="109" ht="22.5" customHeight="1">
+      <c r="A109" s="8"/>
+    </row>
+    <row r="110" ht="22.5" customHeight="1">
+      <c r="A110" s="8"/>
+    </row>
+    <row r="111" ht="22.5" customHeight="1">
+      <c r="A111" s="8"/>
+    </row>
+    <row r="112" ht="22.5" customHeight="1">
+      <c r="A112" s="8"/>
+    </row>
+    <row r="113" ht="22.5" customHeight="1">
+      <c r="A113" s="8"/>
+    </row>
+    <row r="114" ht="22.5" customHeight="1">
+      <c r="A114" s="8"/>
+    </row>
+    <row r="115" ht="22.5" customHeight="1">
+      <c r="A115" s="8"/>
+    </row>
+    <row r="116" ht="22.5" customHeight="1">
+      <c r="A116" s="8"/>
+    </row>
+    <row r="117" ht="22.5" customHeight="1">
+      <c r="A117" s="8"/>
+    </row>
+    <row r="118" ht="22.5" customHeight="1">
+      <c r="A118" s="8"/>
+    </row>
+    <row r="119" ht="22.5" customHeight="1">
+      <c r="A119" s="8"/>
+    </row>
+    <row r="120" ht="22.5" customHeight="1">
+      <c r="A120" s="8"/>
+    </row>
+    <row r="121" ht="22.5" customHeight="1">
+      <c r="A121" s="8"/>
+    </row>
+    <row r="122" ht="22.5" customHeight="1">
+      <c r="A122" s="8"/>
+    </row>
+    <row r="123" ht="22.5" customHeight="1">
+      <c r="A123" s="8"/>
+    </row>
+    <row r="124" ht="22.5" customHeight="1">
+      <c r="A124" s="8"/>
+    </row>
+    <row r="125" ht="22.5" customHeight="1">
+      <c r="A125" s="8"/>
+    </row>
+    <row r="126" ht="22.5" customHeight="1">
+      <c r="A126" s="8"/>
+    </row>
+    <row r="127" ht="22.5" customHeight="1">
+      <c r="A127" s="8"/>
+    </row>
+    <row r="128" ht="22.5" customHeight="1">
+      <c r="A128" s="8"/>
+    </row>
+    <row r="129" ht="22.5" customHeight="1">
+      <c r="A129" s="8"/>
+    </row>
+    <row r="130" ht="22.5" customHeight="1">
+      <c r="A130" s="8"/>
+    </row>
+    <row r="131" ht="22.5" customHeight="1">
+      <c r="A131" s="8"/>
+    </row>
+    <row r="132" ht="22.5" customHeight="1">
+      <c r="A132" s="8"/>
+    </row>
+    <row r="133" ht="22.5" customHeight="1">
+      <c r="A133" s="8"/>
+    </row>
+    <row r="134" ht="22.5" customHeight="1">
+      <c r="A134" s="8"/>
+    </row>
+    <row r="135" ht="22.5" customHeight="1">
+      <c r="A135" s="8"/>
+    </row>
+    <row r="136" ht="22.5" customHeight="1">
+      <c r="A136" s="8"/>
+    </row>
+    <row r="137" ht="22.5" customHeight="1">
+      <c r="A137" s="8"/>
+    </row>
+    <row r="138" ht="22.5" customHeight="1">
+      <c r="A138" s="8"/>
+    </row>
+    <row r="139" ht="22.5" customHeight="1">
+      <c r="A139" s="8"/>
+    </row>
+    <row r="140" ht="22.5" customHeight="1">
+      <c r="A140" s="8"/>
+    </row>
+    <row r="141" ht="22.5" customHeight="1">
+      <c r="A141" s="8"/>
+    </row>
+    <row r="142" ht="22.5" customHeight="1">
+      <c r="A142" s="8"/>
+    </row>
+    <row r="143" ht="22.5" customHeight="1">
+      <c r="A143" s="8"/>
+    </row>
+    <row r="144" ht="22.5" customHeight="1">
+      <c r="A144" s="8"/>
+    </row>
+    <row r="145" ht="22.5" customHeight="1">
+      <c r="A145" s="8"/>
+    </row>
+    <row r="146" ht="22.5" customHeight="1">
+      <c r="A146" s="8"/>
+    </row>
+    <row r="147" ht="22.5" customHeight="1">
+      <c r="A147" s="8"/>
+    </row>
+    <row r="148" ht="22.5" customHeight="1">
+      <c r="A148" s="8"/>
+    </row>
+    <row r="149" ht="22.5" customHeight="1">
+      <c r="A149" s="8"/>
+    </row>
+    <row r="150" ht="22.5" customHeight="1">
+      <c r="A150" s="8"/>
+    </row>
+    <row r="151" ht="22.5" customHeight="1">
+      <c r="A151" s="8"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D151">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="7">
+      <formula>NOT(ISERROR(SEARCH(("7"),(D1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D151">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="8">
+      <formula>NOT(ISERROR(SEARCH(("8"),(D1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D151">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="9">
+      <formula>NOT(ISERROR(SEARCH(("9"),(D1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D151">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="10">
+      <formula>NOT(ISERROR(SEARCH(("10"),(D1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A151">
+      <formula1>OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D"))</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToWidth="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/data/rpe_primera.xlsx
+++ b/data/rpe_primera.xlsx
@@ -13,28 +13,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="45">
   <si>
-    <t>Column 1</t>
-  </si>
-  <si>
-    <t>Column 2</t>
-  </si>
-  <si>
-    <t>Column 3</t>
-  </si>
-  <si>
-    <t>Column 4</t>
-  </si>
-  <si>
-    <t>Column 5</t>
-  </si>
-  <si>
-    <t>Column 6</t>
-  </si>
-  <si>
-    <t>Column 7</t>
-  </si>
-  <si>
-    <t>Column 8</t>
+    <t>Marca temporal</t>
+  </si>
+  <si>
+    <t>Día de la semana</t>
+  </si>
+  <si>
+    <t>Nombre del Jugador</t>
+  </si>
+  <si>
+    <t>RPE de la sesión</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>RPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizaste activación, movilidad, foamroller o preventivos antes del entrenamiento? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiciste alguna estrategia de recuperación después de entrenar? </t>
   </si>
   <si>
     <t>Lunes</t>
@@ -155,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/MM/yyyy H:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -163,51 +163,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B3F86"/>
+        <bgColor rgb="FF5B3F86"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5B3F86"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5B3F86"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5B3F86"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5B3F86"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -307,14 +362,14 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H151" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="8">
-    <tableColumn name="Column 1" id="1"/>
-    <tableColumn name="Column 2" id="2"/>
-    <tableColumn name="Column 3" id="3"/>
-    <tableColumn name="Column 4" id="4"/>
-    <tableColumn name="Column 5" id="5"/>
-    <tableColumn name="Column 6" id="6"/>
-    <tableColumn name="Column 7" id="7"/>
-    <tableColumn name="Column 8" id="8"/>
+    <tableColumn name="Marca temporal" id="1"/>
+    <tableColumn name="Día de la semana" id="2"/>
+    <tableColumn name="Nombre del Jugador" id="3"/>
+    <tableColumn name="RPE de la sesión" id="4"/>
+    <tableColumn name="Valor" id="5"/>
+    <tableColumn name="RPE" id="6"/>
+    <tableColumn name="Realizaste activación, movilidad, foamroller o preventivos antes del entrenamiento? " id="7"/>
+    <tableColumn name="Hiciste alguna estrategia de recuperación después de entrenar? " id="8"/>
   </tableColumns>
   <tableStyleInfo name="Respuestas de formulario 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -531,8 +586,7 @@
     <col customWidth="1" min="1" max="2" width="18.88"/>
     <col customWidth="1" min="3" max="3" width="20.25"/>
     <col customWidth="1" min="4" max="4" width="18.88"/>
-    <col customWidth="1" hidden="1" min="5" max="5" width="37.63"/>
-    <col customWidth="1" min="6" max="8" width="37.63"/>
+    <col customWidth="1" min="5" max="8" width="37.63"/>
     <col customWidth="1" min="9" max="14" width="18.88"/>
   </cols>
   <sheetData>
@@ -540,1772 +594,1772 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>46013.436431678245</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="E2" s="5" t="str">
         <f t="shared" ref="E2:E52" si="1">left(D2)</f>
         <v>3</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <f t="shared" ref="F2:F52" si="2">E2*1</f>
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>46013.43688310185</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F3" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="E3" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>46013.43704454861</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="E4" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>46013.437277812496</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="E5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>46013.43758578703</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>46013.438136157405</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>46013.438667361115</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="6" t="str">
+      <c r="E8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>46013.438862627314</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>46013.443182627314</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="6" t="str">
+      <c r="E10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>46013.44361766204</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="6" t="str">
+      <c r="E11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>46013.46276692129</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="6" t="str">
+      <c r="E12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="G12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>46013.463303136574</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="6" t="str">
+      <c r="E13" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>46013.46527138889</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="6" t="str">
+      <c r="E14" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="G14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>46013.46641356482</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="6" t="str">
+      <c r="E15" s="7" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="G15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>46013.46667349537</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>46013.467105358795</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="6" t="str">
+      <c r="E17" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="G17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>46013.467613298606</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="6" t="str">
+      <c r="E18" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="G18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>46013.46878451389</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="6" t="str">
+      <c r="E19" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="G19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>46013.46966179398</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="6" t="str">
+      <c r="E20" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="G20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>46013.47055857639</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="6" t="str">
+      <c r="E21" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="G21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1">
-      <c r="A22" s="5">
+      <c r="A22" s="6">
         <v>46013.47184474537</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="6" t="str">
+      <c r="E22" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="G22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" ht="22.5" customHeight="1">
-      <c r="A23" s="5">
+      <c r="A23" s="6">
         <v>46013.47246322916</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="6" t="str">
+      <c r="E23" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="6" t="s">
+      <c r="G23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1">
-      <c r="A24" s="5">
+      <c r="A24" s="6">
         <v>46013.47300650463</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="6" t="s">
+      <c r="E24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" ht="22.5" customHeight="1">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <v>46013.48124641203</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="6" t="s">
+      <c r="E25" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" ht="22.5" customHeight="1">
-      <c r="A26" s="5">
+      <c r="A26" s="6">
         <v>46013.48214115741</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="6" t="str">
+      <c r="E26" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="6" t="s">
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" ht="22.5" customHeight="1">
-      <c r="A27" s="5">
+      <c r="A27" s="6">
         <v>46013.482916990746</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F27" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="E27" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" ht="22.5" customHeight="1">
-      <c r="A28" s="5">
+      <c r="A28" s="6">
         <v>46013.5183987037</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F28" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="6" t="s">
+      <c r="E28" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" ht="22.5" customHeight="1">
-      <c r="A29" s="5">
+      <c r="A29" s="6">
         <v>46013.529549756946</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="7" t="str">
+      <c r="E29" s="8" t="str">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="6" t="s">
+      <c r="G29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" ht="22.5" customHeight="1">
-      <c r="A30" s="5">
+      <c r="A30" s="6">
         <v>46013.74579298611</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="7" t="str">
+      <c r="E30" s="8" t="str">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="G30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" ht="22.5" customHeight="1">
-      <c r="A31" s="5">
+      <c r="A31" s="6">
         <v>46013.74636309028</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F31" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="6" t="s">
+      <c r="E31" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" ht="22.5" customHeight="1">
-      <c r="A32" s="5">
+      <c r="A32" s="6">
         <v>46013.74669550926</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="7" t="str">
+      <c r="E32" s="8" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="8">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="6" t="s">
+      <c r="G32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" ht="22.5" customHeight="1">
-      <c r="A33" s="5">
+      <c r="A33" s="6">
         <v>46013.74705899306</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="7" t="str">
+      <c r="E33" s="8" t="str">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="6" t="s">
+      <c r="G33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" ht="22.5" customHeight="1">
-      <c r="A34" s="5">
+      <c r="A34" s="6">
         <v>46013.74737549768</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F34" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="6" t="s">
+      <c r="E34" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" ht="22.5" customHeight="1">
-      <c r="A35" s="5">
+      <c r="A35" s="6">
         <v>46013.74825586806</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="7" t="str">
+      <c r="E35" s="8" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="8">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="6" t="s">
+      <c r="G35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" ht="22.5" customHeight="1">
-      <c r="A36" s="5">
+      <c r="A36" s="6">
         <v>46013.74908553241</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F36" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="6" t="s">
+      <c r="E36" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" ht="22.5" customHeight="1">
-      <c r="A37" s="5">
+      <c r="A37" s="6">
         <v>46013.74933291667</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="7" t="str">
+      <c r="E37" s="8" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="8">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="6" t="s">
+      <c r="G37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" ht="22.5" customHeight="1">
-      <c r="A38" s="5">
+      <c r="A38" s="6">
         <v>46013.74969459491</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="7" t="str">
+      <c r="E38" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="6" t="s">
+      <c r="G38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" ht="22.5" customHeight="1">
-      <c r="A39" s="5">
+      <c r="A39" s="6">
         <v>46013.750061134255</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="B39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F39" s="7">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="6" t="s">
+      <c r="E39" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" ht="22.5" customHeight="1">
-      <c r="A40" s="5">
+      <c r="A40" s="6">
         <v>46013.75041559028</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="7" t="str">
+      <c r="E40" s="8" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="6" t="s">
+      <c r="G40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" ht="22.5" customHeight="1">
-      <c r="A41" s="5">
+      <c r="A41" s="6">
         <v>46013.75063840278</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="7" t="str">
+      <c r="E41" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="6" t="s">
+      <c r="G41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="42" ht="22.5" customHeight="1">
-      <c r="A42" s="5">
+      <c r="A42" s="6">
         <v>46013.751155335645</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="7" t="str">
+      <c r="E42" s="8" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="6" t="s">
+      <c r="G42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" ht="22.5" customHeight="1">
-      <c r="A43" s="5">
+      <c r="A43" s="6">
         <v>46013.75141506945</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="B43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F43" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="6" t="s">
+      <c r="E43" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="44" ht="22.5" customHeight="1">
-      <c r="A44" s="5">
+      <c r="A44" s="6">
         <v>46013.751750208336</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="B44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="7" t="str">
+      <c r="E44" s="8" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="8">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="6" t="s">
+      <c r="G44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="45" ht="22.5" customHeight="1">
-      <c r="A45" s="5">
+      <c r="A45" s="6">
         <v>46013.753565266205</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="6" t="s">
+      <c r="B45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="7" t="str">
+      <c r="E45" s="8" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="8">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="6" t="s">
+      <c r="G45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" ht="22.5" customHeight="1">
-      <c r="A46" s="5">
+      <c r="A46" s="6">
         <v>46013.75420954861</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="6" t="s">
+      <c r="B46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F46" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="6" t="s">
+      <c r="E46" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="47" ht="22.5" customHeight="1">
-      <c r="A47" s="5">
+      <c r="A47" s="6">
         <v>46013.75463383102</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="7" t="str">
+      <c r="E47" s="8" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="8">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="6" t="s">
+      <c r="G47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" ht="22.5" customHeight="1">
-      <c r="A48" s="5">
+      <c r="A48" s="6">
         <v>46013.75532391203</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="B48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="7" t="str">
+      <c r="E48" s="8" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="6" t="s">
+      <c r="G48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="49" ht="22.5" customHeight="1">
-      <c r="A49" s="5">
+      <c r="A49" s="6">
         <v>46013.75765197916</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="7" t="str">
+      <c r="E49" s="8" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G49" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="6" t="s">
+      <c r="G49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" ht="22.5" customHeight="1">
-      <c r="A50" s="5">
+      <c r="A50" s="6">
         <v>46013.75827232639</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="6" t="s">
+      <c r="B50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="7" t="str">
+      <c r="E50" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G50" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="6" t="s">
+      <c r="G50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" ht="22.5" customHeight="1">
-      <c r="A51" s="5">
+      <c r="A51" s="6">
         <v>46013.75899987268</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="B51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F51" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="6" t="s">
+      <c r="E51" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F51" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" ht="22.5" customHeight="1">
-      <c r="A52" s="5">
+      <c r="A52" s="6">
         <v>46013.75937878472</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="6" t="s">
+      <c r="B52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="7" t="str">
+      <c r="E52" s="8" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="6" t="s">
+      <c r="G52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="53" ht="22.5" customHeight="1">
-      <c r="A53" s="8"/>
+      <c r="A53" s="9"/>
     </row>
     <row r="54" ht="22.5" customHeight="1">
-      <c r="A54" s="8"/>
+      <c r="A54" s="9"/>
     </row>
     <row r="55" ht="22.5" customHeight="1">
-      <c r="A55" s="8"/>
+      <c r="A55" s="9"/>
     </row>
     <row r="56" ht="22.5" customHeight="1">
-      <c r="A56" s="8"/>
+      <c r="A56" s="9"/>
     </row>
     <row r="57" ht="22.5" customHeight="1">
-      <c r="A57" s="8"/>
+      <c r="A57" s="9"/>
     </row>
     <row r="58" ht="22.5" customHeight="1">
-      <c r="A58" s="8"/>
+      <c r="A58" s="9"/>
     </row>
     <row r="59" ht="22.5" customHeight="1">
-      <c r="A59" s="8"/>
+      <c r="A59" s="9"/>
     </row>
     <row r="60" ht="22.5" customHeight="1">
-      <c r="A60" s="8"/>
+      <c r="A60" s="9"/>
     </row>
     <row r="61" ht="22.5" customHeight="1">
-      <c r="A61" s="8"/>
+      <c r="A61" s="9"/>
     </row>
     <row r="62" ht="22.5" customHeight="1">
-      <c r="A62" s="8"/>
+      <c r="A62" s="9"/>
     </row>
     <row r="63" ht="22.5" customHeight="1">
-      <c r="A63" s="8"/>
+      <c r="A63" s="9"/>
     </row>
     <row r="64" ht="22.5" customHeight="1">
-      <c r="A64" s="8"/>
+      <c r="A64" s="9"/>
     </row>
     <row r="65" ht="22.5" customHeight="1">
-      <c r="A65" s="8"/>
+      <c r="A65" s="9"/>
     </row>
     <row r="66" ht="22.5" customHeight="1">
-      <c r="A66" s="8"/>
+      <c r="A66" s="9"/>
     </row>
     <row r="67" ht="22.5" customHeight="1">
-      <c r="A67" s="8"/>
+      <c r="A67" s="9"/>
     </row>
     <row r="68" ht="22.5" customHeight="1">
-      <c r="A68" s="8"/>
+      <c r="A68" s="9"/>
     </row>
     <row r="69" ht="22.5" customHeight="1">
-      <c r="A69" s="8"/>
+      <c r="A69" s="9"/>
     </row>
     <row r="70" ht="22.5" customHeight="1">
-      <c r="A70" s="8"/>
+      <c r="A70" s="9"/>
     </row>
     <row r="71" ht="22.5" customHeight="1">
-      <c r="A71" s="8"/>
+      <c r="A71" s="9"/>
     </row>
     <row r="72" ht="22.5" customHeight="1">
-      <c r="A72" s="8"/>
+      <c r="A72" s="9"/>
     </row>
     <row r="73" ht="22.5" customHeight="1">
-      <c r="A73" s="8"/>
+      <c r="A73" s="9"/>
     </row>
     <row r="74" ht="22.5" customHeight="1">
-      <c r="A74" s="8"/>
+      <c r="A74" s="9"/>
     </row>
     <row r="75" ht="22.5" customHeight="1">
-      <c r="A75" s="8"/>
+      <c r="A75" s="9"/>
     </row>
     <row r="76" ht="22.5" customHeight="1">
-      <c r="A76" s="8"/>
+      <c r="A76" s="9"/>
     </row>
     <row r="77" ht="22.5" customHeight="1">
-      <c r="A77" s="8"/>
+      <c r="A77" s="9"/>
     </row>
     <row r="78" ht="22.5" customHeight="1">
-      <c r="A78" s="8"/>
+      <c r="A78" s="9"/>
     </row>
     <row r="79" ht="22.5" customHeight="1">
-      <c r="A79" s="8"/>
+      <c r="A79" s="9"/>
     </row>
     <row r="80" ht="22.5" customHeight="1">
-      <c r="A80" s="8"/>
+      <c r="A80" s="9"/>
     </row>
     <row r="81" ht="22.5" customHeight="1">
-      <c r="A81" s="8"/>
+      <c r="A81" s="9"/>
     </row>
     <row r="82" ht="22.5" customHeight="1">
-      <c r="A82" s="8"/>
+      <c r="A82" s="9"/>
     </row>
     <row r="83" ht="22.5" customHeight="1">
-      <c r="A83" s="8"/>
+      <c r="A83" s="9"/>
     </row>
     <row r="84" ht="22.5" customHeight="1">
-      <c r="A84" s="8"/>
+      <c r="A84" s="9"/>
     </row>
     <row r="85" ht="22.5" customHeight="1">
-      <c r="A85" s="8"/>
+      <c r="A85" s="9"/>
     </row>
     <row r="86" ht="22.5" customHeight="1">
-      <c r="A86" s="8"/>
+      <c r="A86" s="9"/>
     </row>
     <row r="87" ht="22.5" customHeight="1">
-      <c r="A87" s="8"/>
+      <c r="A87" s="9"/>
     </row>
     <row r="88" ht="22.5" customHeight="1">
-      <c r="A88" s="8"/>
+      <c r="A88" s="9"/>
     </row>
     <row r="89" ht="22.5" customHeight="1">
-      <c r="A89" s="8"/>
+      <c r="A89" s="9"/>
     </row>
     <row r="90" ht="22.5" customHeight="1">
-      <c r="A90" s="8"/>
+      <c r="A90" s="9"/>
     </row>
     <row r="91" ht="22.5" customHeight="1">
-      <c r="A91" s="8"/>
+      <c r="A91" s="9"/>
     </row>
     <row r="92" ht="22.5" customHeight="1">
-      <c r="A92" s="8"/>
+      <c r="A92" s="9"/>
     </row>
     <row r="93" ht="22.5" customHeight="1">
-      <c r="A93" s="8"/>
+      <c r="A93" s="9"/>
     </row>
     <row r="94" ht="22.5" customHeight="1">
-      <c r="A94" s="8"/>
+      <c r="A94" s="9"/>
     </row>
     <row r="95" ht="22.5" customHeight="1">
-      <c r="A95" s="8"/>
+      <c r="A95" s="9"/>
     </row>
     <row r="96" ht="22.5" customHeight="1">
-      <c r="A96" s="8"/>
+      <c r="A96" s="9"/>
     </row>
     <row r="97" ht="22.5" customHeight="1">
-      <c r="A97" s="8"/>
+      <c r="A97" s="9"/>
     </row>
     <row r="98" ht="22.5" customHeight="1">
-      <c r="A98" s="8"/>
+      <c r="A98" s="9"/>
     </row>
     <row r="99" ht="22.5" customHeight="1">
-      <c r="A99" s="8"/>
+      <c r="A99" s="9"/>
     </row>
     <row r="100" ht="22.5" customHeight="1">
-      <c r="A100" s="8"/>
+      <c r="A100" s="9"/>
     </row>
     <row r="101" ht="22.5" customHeight="1">
-      <c r="A101" s="8"/>
+      <c r="A101" s="9"/>
     </row>
     <row r="102" ht="22.5" customHeight="1">
-      <c r="A102" s="8"/>
+      <c r="A102" s="9"/>
     </row>
     <row r="103" ht="22.5" customHeight="1">
-      <c r="A103" s="8"/>
+      <c r="A103" s="9"/>
     </row>
     <row r="104" ht="22.5" customHeight="1">
-      <c r="A104" s="8"/>
+      <c r="A104" s="9"/>
     </row>
     <row r="105" ht="22.5" customHeight="1">
-      <c r="A105" s="8"/>
+      <c r="A105" s="9"/>
     </row>
     <row r="106" ht="22.5" customHeight="1">
-      <c r="A106" s="8"/>
+      <c r="A106" s="9"/>
     </row>
     <row r="107" ht="22.5" customHeight="1">
-      <c r="A107" s="8"/>
+      <c r="A107" s="9"/>
     </row>
     <row r="108" ht="22.5" customHeight="1">
-      <c r="A108" s="8"/>
+      <c r="A108" s="9"/>
     </row>
     <row r="109" ht="22.5" customHeight="1">
-      <c r="A109" s="8"/>
+      <c r="A109" s="9"/>
     </row>
     <row r="110" ht="22.5" customHeight="1">
-      <c r="A110" s="8"/>
+      <c r="A110" s="9"/>
     </row>
     <row r="111" ht="22.5" customHeight="1">
-      <c r="A111" s="8"/>
+      <c r="A111" s="9"/>
     </row>
     <row r="112" ht="22.5" customHeight="1">
-      <c r="A112" s="8"/>
+      <c r="A112" s="9"/>
     </row>
     <row r="113" ht="22.5" customHeight="1">
-      <c r="A113" s="8"/>
+      <c r="A113" s="9"/>
     </row>
     <row r="114" ht="22.5" customHeight="1">
-      <c r="A114" s="8"/>
+      <c r="A114" s="9"/>
     </row>
     <row r="115" ht="22.5" customHeight="1">
-      <c r="A115" s="8"/>
+      <c r="A115" s="9"/>
     </row>
     <row r="116" ht="22.5" customHeight="1">
-      <c r="A116" s="8"/>
+      <c r="A116" s="9"/>
     </row>
     <row r="117" ht="22.5" customHeight="1">
-      <c r="A117" s="8"/>
+      <c r="A117" s="9"/>
     </row>
     <row r="118" ht="22.5" customHeight="1">
-      <c r="A118" s="8"/>
+      <c r="A118" s="9"/>
     </row>
     <row r="119" ht="22.5" customHeight="1">
-      <c r="A119" s="8"/>
+      <c r="A119" s="9"/>
     </row>
     <row r="120" ht="22.5" customHeight="1">
-      <c r="A120" s="8"/>
+      <c r="A120" s="9"/>
     </row>
     <row r="121" ht="22.5" customHeight="1">
-      <c r="A121" s="8"/>
+      <c r="A121" s="9"/>
     </row>
     <row r="122" ht="22.5" customHeight="1">
-      <c r="A122" s="8"/>
+      <c r="A122" s="9"/>
     </row>
     <row r="123" ht="22.5" customHeight="1">
-      <c r="A123" s="8"/>
+      <c r="A123" s="9"/>
     </row>
     <row r="124" ht="22.5" customHeight="1">
-      <c r="A124" s="8"/>
+      <c r="A124" s="9"/>
     </row>
     <row r="125" ht="22.5" customHeight="1">
-      <c r="A125" s="8"/>
+      <c r="A125" s="9"/>
     </row>
     <row r="126" ht="22.5" customHeight="1">
-      <c r="A126" s="8"/>
+      <c r="A126" s="9"/>
     </row>
     <row r="127" ht="22.5" customHeight="1">
-      <c r="A127" s="8"/>
+      <c r="A127" s="9"/>
     </row>
     <row r="128" ht="22.5" customHeight="1">
-      <c r="A128" s="8"/>
+      <c r="A128" s="9"/>
     </row>
     <row r="129" ht="22.5" customHeight="1">
-      <c r="A129" s="8"/>
+      <c r="A129" s="9"/>
     </row>
     <row r="130" ht="22.5" customHeight="1">
-      <c r="A130" s="8"/>
+      <c r="A130" s="9"/>
     </row>
     <row r="131" ht="22.5" customHeight="1">
-      <c r="A131" s="8"/>
+      <c r="A131" s="9"/>
     </row>
     <row r="132" ht="22.5" customHeight="1">
-      <c r="A132" s="8"/>
+      <c r="A132" s="9"/>
     </row>
     <row r="133" ht="22.5" customHeight="1">
-      <c r="A133" s="8"/>
+      <c r="A133" s="9"/>
     </row>
     <row r="134" ht="22.5" customHeight="1">
-      <c r="A134" s="8"/>
+      <c r="A134" s="9"/>
     </row>
     <row r="135" ht="22.5" customHeight="1">
-      <c r="A135" s="8"/>
+      <c r="A135" s="9"/>
     </row>
     <row r="136" ht="22.5" customHeight="1">
-      <c r="A136" s="8"/>
+      <c r="A136" s="9"/>
     </row>
     <row r="137" ht="22.5" customHeight="1">
-      <c r="A137" s="8"/>
+      <c r="A137" s="9"/>
     </row>
     <row r="138" ht="22.5" customHeight="1">
-      <c r="A138" s="8"/>
+      <c r="A138" s="9"/>
     </row>
     <row r="139" ht="22.5" customHeight="1">
-      <c r="A139" s="8"/>
+      <c r="A139" s="9"/>
     </row>
     <row r="140" ht="22.5" customHeight="1">
-      <c r="A140" s="8"/>
+      <c r="A140" s="9"/>
     </row>
     <row r="141" ht="22.5" customHeight="1">
-      <c r="A141" s="8"/>
+      <c r="A141" s="9"/>
     </row>
     <row r="142" ht="22.5" customHeight="1">
-      <c r="A142" s="8"/>
+      <c r="A142" s="9"/>
     </row>
     <row r="143" ht="22.5" customHeight="1">
-      <c r="A143" s="8"/>
+      <c r="A143" s="9"/>
     </row>
     <row r="144" ht="22.5" customHeight="1">
-      <c r="A144" s="8"/>
+      <c r="A144" s="9"/>
     </row>
     <row r="145" ht="22.5" customHeight="1">
-      <c r="A145" s="8"/>
+      <c r="A145" s="9"/>
     </row>
     <row r="146" ht="22.5" customHeight="1">
-      <c r="A146" s="8"/>
+      <c r="A146" s="9"/>
     </row>
     <row r="147" ht="22.5" customHeight="1">
-      <c r="A147" s="8"/>
+      <c r="A147" s="9"/>
     </row>
     <row r="148" ht="22.5" customHeight="1">
-      <c r="A148" s="8"/>
+      <c r="A148" s="9"/>
     </row>
     <row r="149" ht="22.5" customHeight="1">
-      <c r="A149" s="8"/>
+      <c r="A149" s="9"/>
     </row>
     <row r="150" ht="22.5" customHeight="1">
-      <c r="A150" s="8"/>
+      <c r="A150" s="9"/>
     </row>
     <row r="151" ht="22.5" customHeight="1">
-      <c r="A151" s="8"/>
+      <c r="A151" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D151">
+  <conditionalFormatting sqref="C1 D2:D151">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="7">
-      <formula>NOT(ISERROR(SEARCH(("7"),(D1))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("7"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D151">
+  <conditionalFormatting sqref="C1 D2:D151">
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="8">
-      <formula>NOT(ISERROR(SEARCH(("8"),(D1))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("8"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D151">
+  <conditionalFormatting sqref="C1 D2:D151">
     <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="9">
-      <formula>NOT(ISERROR(SEARCH(("9"),(D1))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("9"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D151">
+  <conditionalFormatting sqref="C1 D2:D151">
     <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="10">
-      <formula>NOT(ISERROR(SEARCH(("10"),(D1))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("10"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/data/rpe_primera.xlsx
+++ b/data/rpe_primera.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="47">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -146,14 +146,21 @@
   </si>
   <si>
     <t>8 muy muy duro</t>
+  </si>
+  <si>
+    <t>Luis Ángel Malagón</t>
+  </si>
+  <si>
+    <t>Martes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/MM/yyyy H:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -234,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -261,6 +268,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -360,7 +370,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H151" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H172" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la semana" id="2"/>
@@ -630,11 +640,11 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="str">
-        <f t="shared" ref="E2:E52" si="1">left(D2)</f>
+        <f t="shared" ref="E2:E73" si="1">left(D2)</f>
         <v>3</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F52" si="2">E2*1</f>
+        <f t="shared" ref="F2:F73" si="2">E2*1</f>
         <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -1996,7 +2006,7 @@
         <v>8</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>13</v>
@@ -2045,325 +2055,913 @@
       </c>
     </row>
     <row r="53" ht="22.5" customHeight="1">
-      <c r="A53" s="9"/>
+      <c r="A53" s="9">
+        <v>46014.44462202546</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="54" ht="22.5" customHeight="1">
-      <c r="A54" s="9"/>
+      <c r="A54" s="9">
+        <v>46014.44487416667</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F54" s="8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="55" ht="22.5" customHeight="1">
-      <c r="A55" s="9"/>
+      <c r="A55" s="9">
+        <v>46014.44517380787</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F55" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="56" ht="22.5" customHeight="1">
-      <c r="A56" s="9"/>
+      <c r="A56" s="9">
+        <v>46014.44549825232</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F56" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="57" ht="22.5" customHeight="1">
-      <c r="A57" s="9"/>
+      <c r="A57" s="9">
+        <v>46014.445711203705</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F57" s="8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="58" ht="22.5" customHeight="1">
-      <c r="A58" s="9"/>
+      <c r="A58" s="9">
+        <v>46014.44601784722</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F58" s="8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="59" ht="22.5" customHeight="1">
-      <c r="A59" s="9"/>
+      <c r="A59" s="9">
+        <v>46014.446111736106</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F59" s="8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="60" ht="22.5" customHeight="1">
-      <c r="A60" s="9"/>
+      <c r="A60" s="9">
+        <v>46014.44631157407</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F60" s="8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="61" ht="22.5" customHeight="1">
-      <c r="A61" s="9"/>
+      <c r="A61" s="9">
+        <v>46014.446463043976</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F61" s="8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="62" ht="22.5" customHeight="1">
-      <c r="A62" s="9"/>
+      <c r="A62" s="9">
+        <v>46014.446567997686</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F62" s="8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="63" ht="22.5" customHeight="1">
-      <c r="A63" s="9"/>
+      <c r="A63" s="9">
+        <v>46014.44681594908</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F63" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="64" ht="22.5" customHeight="1">
-      <c r="A64" s="9"/>
+      <c r="A64" s="9">
+        <v>46014.44715881944</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F64" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="65" ht="22.5" customHeight="1">
-      <c r="A65" s="9"/>
+      <c r="A65" s="9">
+        <v>46014.4472605787</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F65" s="8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="66" ht="22.5" customHeight="1">
-      <c r="A66" s="9"/>
+      <c r="A66" s="9">
+        <v>46014.44749895833</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F66" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="67" ht="22.5" customHeight="1">
-      <c r="A67" s="9"/>
+      <c r="A67" s="9">
+        <v>46014.44752241898</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F67" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="68" ht="22.5" customHeight="1">
-      <c r="A68" s="9"/>
+      <c r="A68" s="9">
+        <v>46014.44773850695</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F68" s="8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="69" ht="22.5" customHeight="1">
-      <c r="A69" s="9"/>
+      <c r="A69" s="9">
+        <v>46014.447789328704</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F69" s="8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="70" ht="22.5" customHeight="1">
-      <c r="A70" s="9"/>
+      <c r="A70" s="9">
+        <v>46014.448115011575</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F70" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="71" ht="22.5" customHeight="1">
-      <c r="A71" s="9"/>
+      <c r="A71" s="9">
+        <v>46014.44843621527</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F71" s="8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="72" ht="22.5" customHeight="1">
-      <c r="A72" s="9"/>
+      <c r="A72" s="9">
+        <v>46014.44910784722</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F72" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="73" ht="22.5" customHeight="1">
-      <c r="A73" s="9"/>
+      <c r="A73" s="9">
+        <v>46014.45001987269</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F73" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="74" ht="22.5" customHeight="1">
-      <c r="A74" s="9"/>
+      <c r="A74" s="10"/>
     </row>
     <row r="75" ht="22.5" customHeight="1">
-      <c r="A75" s="9"/>
+      <c r="A75" s="10"/>
     </row>
     <row r="76" ht="22.5" customHeight="1">
-      <c r="A76" s="9"/>
+      <c r="A76" s="10"/>
     </row>
     <row r="77" ht="22.5" customHeight="1">
-      <c r="A77" s="9"/>
+      <c r="A77" s="10"/>
     </row>
     <row r="78" ht="22.5" customHeight="1">
-      <c r="A78" s="9"/>
+      <c r="A78" s="10"/>
     </row>
     <row r="79" ht="22.5" customHeight="1">
-      <c r="A79" s="9"/>
+      <c r="A79" s="10"/>
     </row>
     <row r="80" ht="22.5" customHeight="1">
-      <c r="A80" s="9"/>
+      <c r="A80" s="10"/>
     </row>
     <row r="81" ht="22.5" customHeight="1">
-      <c r="A81" s="9"/>
+      <c r="A81" s="10"/>
     </row>
     <row r="82" ht="22.5" customHeight="1">
-      <c r="A82" s="9"/>
+      <c r="A82" s="10"/>
     </row>
     <row r="83" ht="22.5" customHeight="1">
-      <c r="A83" s="9"/>
+      <c r="A83" s="10"/>
     </row>
     <row r="84" ht="22.5" customHeight="1">
-      <c r="A84" s="9"/>
+      <c r="A84" s="10"/>
     </row>
     <row r="85" ht="22.5" customHeight="1">
-      <c r="A85" s="9"/>
+      <c r="A85" s="10"/>
     </row>
     <row r="86" ht="22.5" customHeight="1">
-      <c r="A86" s="9"/>
+      <c r="A86" s="10"/>
     </row>
     <row r="87" ht="22.5" customHeight="1">
-      <c r="A87" s="9"/>
+      <c r="A87" s="10"/>
     </row>
     <row r="88" ht="22.5" customHeight="1">
-      <c r="A88" s="9"/>
+      <c r="A88" s="10"/>
     </row>
     <row r="89" ht="22.5" customHeight="1">
-      <c r="A89" s="9"/>
+      <c r="A89" s="10"/>
     </row>
     <row r="90" ht="22.5" customHeight="1">
-      <c r="A90" s="9"/>
+      <c r="A90" s="10"/>
     </row>
     <row r="91" ht="22.5" customHeight="1">
-      <c r="A91" s="9"/>
+      <c r="A91" s="10"/>
     </row>
     <row r="92" ht="22.5" customHeight="1">
-      <c r="A92" s="9"/>
+      <c r="A92" s="10"/>
     </row>
     <row r="93" ht="22.5" customHeight="1">
-      <c r="A93" s="9"/>
+      <c r="A93" s="10"/>
     </row>
     <row r="94" ht="22.5" customHeight="1">
-      <c r="A94" s="9"/>
+      <c r="A94" s="10"/>
     </row>
     <row r="95" ht="22.5" customHeight="1">
-      <c r="A95" s="9"/>
+      <c r="A95" s="10"/>
     </row>
     <row r="96" ht="22.5" customHeight="1">
-      <c r="A96" s="9"/>
+      <c r="A96" s="10"/>
     </row>
     <row r="97" ht="22.5" customHeight="1">
-      <c r="A97" s="9"/>
+      <c r="A97" s="10"/>
     </row>
     <row r="98" ht="22.5" customHeight="1">
-      <c r="A98" s="9"/>
+      <c r="A98" s="10"/>
     </row>
     <row r="99" ht="22.5" customHeight="1">
-      <c r="A99" s="9"/>
+      <c r="A99" s="10"/>
     </row>
     <row r="100" ht="22.5" customHeight="1">
-      <c r="A100" s="9"/>
+      <c r="A100" s="10"/>
     </row>
     <row r="101" ht="22.5" customHeight="1">
-      <c r="A101" s="9"/>
+      <c r="A101" s="10"/>
     </row>
     <row r="102" ht="22.5" customHeight="1">
-      <c r="A102" s="9"/>
+      <c r="A102" s="10"/>
     </row>
     <row r="103" ht="22.5" customHeight="1">
-      <c r="A103" s="9"/>
+      <c r="A103" s="10"/>
     </row>
     <row r="104" ht="22.5" customHeight="1">
-      <c r="A104" s="9"/>
+      <c r="A104" s="10"/>
     </row>
     <row r="105" ht="22.5" customHeight="1">
-      <c r="A105" s="9"/>
+      <c r="A105" s="10"/>
     </row>
     <row r="106" ht="22.5" customHeight="1">
-      <c r="A106" s="9"/>
+      <c r="A106" s="10"/>
     </row>
     <row r="107" ht="22.5" customHeight="1">
-      <c r="A107" s="9"/>
+      <c r="A107" s="10"/>
     </row>
     <row r="108" ht="22.5" customHeight="1">
-      <c r="A108" s="9"/>
+      <c r="A108" s="10"/>
     </row>
     <row r="109" ht="22.5" customHeight="1">
-      <c r="A109" s="9"/>
+      <c r="A109" s="10"/>
     </row>
     <row r="110" ht="22.5" customHeight="1">
-      <c r="A110" s="9"/>
+      <c r="A110" s="10"/>
     </row>
     <row r="111" ht="22.5" customHeight="1">
-      <c r="A111" s="9"/>
+      <c r="A111" s="10"/>
     </row>
     <row r="112" ht="22.5" customHeight="1">
-      <c r="A112" s="9"/>
+      <c r="A112" s="10"/>
     </row>
     <row r="113" ht="22.5" customHeight="1">
-      <c r="A113" s="9"/>
+      <c r="A113" s="10"/>
     </row>
     <row r="114" ht="22.5" customHeight="1">
-      <c r="A114" s="9"/>
+      <c r="A114" s="10"/>
     </row>
     <row r="115" ht="22.5" customHeight="1">
-      <c r="A115" s="9"/>
+      <c r="A115" s="10"/>
     </row>
     <row r="116" ht="22.5" customHeight="1">
-      <c r="A116" s="9"/>
+      <c r="A116" s="10"/>
     </row>
     <row r="117" ht="22.5" customHeight="1">
-      <c r="A117" s="9"/>
+      <c r="A117" s="10"/>
     </row>
     <row r="118" ht="22.5" customHeight="1">
-      <c r="A118" s="9"/>
+      <c r="A118" s="10"/>
     </row>
     <row r="119" ht="22.5" customHeight="1">
-      <c r="A119" s="9"/>
+      <c r="A119" s="10"/>
     </row>
     <row r="120" ht="22.5" customHeight="1">
-      <c r="A120" s="9"/>
+      <c r="A120" s="10"/>
     </row>
     <row r="121" ht="22.5" customHeight="1">
-      <c r="A121" s="9"/>
+      <c r="A121" s="10"/>
     </row>
     <row r="122" ht="22.5" customHeight="1">
-      <c r="A122" s="9"/>
+      <c r="A122" s="10"/>
     </row>
     <row r="123" ht="22.5" customHeight="1">
-      <c r="A123" s="9"/>
+      <c r="A123" s="10"/>
     </row>
     <row r="124" ht="22.5" customHeight="1">
-      <c r="A124" s="9"/>
+      <c r="A124" s="10"/>
     </row>
     <row r="125" ht="22.5" customHeight="1">
-      <c r="A125" s="9"/>
+      <c r="A125" s="10"/>
     </row>
     <row r="126" ht="22.5" customHeight="1">
-      <c r="A126" s="9"/>
+      <c r="A126" s="10"/>
     </row>
     <row r="127" ht="22.5" customHeight="1">
-      <c r="A127" s="9"/>
+      <c r="A127" s="10"/>
     </row>
     <row r="128" ht="22.5" customHeight="1">
-      <c r="A128" s="9"/>
+      <c r="A128" s="10"/>
     </row>
     <row r="129" ht="22.5" customHeight="1">
-      <c r="A129" s="9"/>
+      <c r="A129" s="10"/>
     </row>
     <row r="130" ht="22.5" customHeight="1">
-      <c r="A130" s="9"/>
+      <c r="A130" s="10"/>
     </row>
     <row r="131" ht="22.5" customHeight="1">
-      <c r="A131" s="9"/>
+      <c r="A131" s="10"/>
     </row>
     <row r="132" ht="22.5" customHeight="1">
-      <c r="A132" s="9"/>
+      <c r="A132" s="10"/>
     </row>
     <row r="133" ht="22.5" customHeight="1">
-      <c r="A133" s="9"/>
+      <c r="A133" s="10"/>
     </row>
     <row r="134" ht="22.5" customHeight="1">
-      <c r="A134" s="9"/>
+      <c r="A134" s="10"/>
     </row>
     <row r="135" ht="22.5" customHeight="1">
-      <c r="A135" s="9"/>
+      <c r="A135" s="10"/>
     </row>
     <row r="136" ht="22.5" customHeight="1">
-      <c r="A136" s="9"/>
+      <c r="A136" s="10"/>
     </row>
     <row r="137" ht="22.5" customHeight="1">
-      <c r="A137" s="9"/>
+      <c r="A137" s="10"/>
     </row>
     <row r="138" ht="22.5" customHeight="1">
-      <c r="A138" s="9"/>
+      <c r="A138" s="10"/>
     </row>
     <row r="139" ht="22.5" customHeight="1">
-      <c r="A139" s="9"/>
+      <c r="A139" s="10"/>
     </row>
     <row r="140" ht="22.5" customHeight="1">
-      <c r="A140" s="9"/>
+      <c r="A140" s="10"/>
     </row>
     <row r="141" ht="22.5" customHeight="1">
-      <c r="A141" s="9"/>
+      <c r="A141" s="10"/>
     </row>
     <row r="142" ht="22.5" customHeight="1">
-      <c r="A142" s="9"/>
+      <c r="A142" s="10"/>
     </row>
     <row r="143" ht="22.5" customHeight="1">
-      <c r="A143" s="9"/>
+      <c r="A143" s="10"/>
     </row>
     <row r="144" ht="22.5" customHeight="1">
-      <c r="A144" s="9"/>
+      <c r="A144" s="10"/>
     </row>
     <row r="145" ht="22.5" customHeight="1">
-      <c r="A145" s="9"/>
+      <c r="A145" s="10"/>
     </row>
     <row r="146" ht="22.5" customHeight="1">
-      <c r="A146" s="9"/>
+      <c r="A146" s="10"/>
     </row>
     <row r="147" ht="22.5" customHeight="1">
-      <c r="A147" s="9"/>
+      <c r="A147" s="10"/>
     </row>
     <row r="148" ht="22.5" customHeight="1">
-      <c r="A148" s="9"/>
+      <c r="A148" s="10"/>
     </row>
     <row r="149" ht="22.5" customHeight="1">
-      <c r="A149" s="9"/>
+      <c r="A149" s="10"/>
     </row>
     <row r="150" ht="22.5" customHeight="1">
-      <c r="A150" s="9"/>
+      <c r="A150" s="10"/>
     </row>
     <row r="151" ht="22.5" customHeight="1">
-      <c r="A151" s="9"/>
+      <c r="A151" s="10"/>
+    </row>
+    <row r="152" ht="22.5" customHeight="1">
+      <c r="A152" s="10"/>
+    </row>
+    <row r="153" ht="22.5" customHeight="1">
+      <c r="A153" s="10"/>
+    </row>
+    <row r="154" ht="22.5" customHeight="1">
+      <c r="A154" s="10"/>
+    </row>
+    <row r="155" ht="22.5" customHeight="1">
+      <c r="A155" s="10"/>
+    </row>
+    <row r="156" ht="22.5" customHeight="1">
+      <c r="A156" s="10"/>
+    </row>
+    <row r="157" ht="22.5" customHeight="1">
+      <c r="A157" s="10"/>
+    </row>
+    <row r="158" ht="22.5" customHeight="1">
+      <c r="A158" s="10"/>
+    </row>
+    <row r="159" ht="22.5" customHeight="1">
+      <c r="A159" s="10"/>
+    </row>
+    <row r="160" ht="22.5" customHeight="1">
+      <c r="A160" s="10"/>
+    </row>
+    <row r="161" ht="22.5" customHeight="1">
+      <c r="A161" s="10"/>
+    </row>
+    <row r="162" ht="22.5" customHeight="1">
+      <c r="A162" s="10"/>
+    </row>
+    <row r="163" ht="22.5" customHeight="1">
+      <c r="A163" s="10"/>
+    </row>
+    <row r="164" ht="22.5" customHeight="1">
+      <c r="A164" s="10"/>
+    </row>
+    <row r="165" ht="22.5" customHeight="1">
+      <c r="A165" s="10"/>
+    </row>
+    <row r="166" ht="22.5" customHeight="1">
+      <c r="A166" s="10"/>
+    </row>
+    <row r="167" ht="22.5" customHeight="1">
+      <c r="A167" s="10"/>
+    </row>
+    <row r="168" ht="22.5" customHeight="1">
+      <c r="A168" s="10"/>
+    </row>
+    <row r="169" ht="22.5" customHeight="1">
+      <c r="A169" s="10"/>
+    </row>
+    <row r="170" ht="22.5" customHeight="1">
+      <c r="A170" s="10"/>
+    </row>
+    <row r="171" ht="22.5" customHeight="1">
+      <c r="A171" s="10"/>
+    </row>
+    <row r="172" ht="22.5" customHeight="1">
+      <c r="A172" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1 D2:D151">
+  <conditionalFormatting sqref="C1 D2:D172">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="7">
       <formula>NOT(ISERROR(SEARCH(("7"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1 D2:D151">
+  <conditionalFormatting sqref="C1 D2:D172">
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="8">
       <formula>NOT(ISERROR(SEARCH(("8"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1 D2:D151">
+  <conditionalFormatting sqref="C1 D2:D172">
     <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="9">
       <formula>NOT(ISERROR(SEARCH(("9"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1 D2:D151">
+  <conditionalFormatting sqref="C1 D2:D172">
     <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="10">
       <formula>NOT(ISERROR(SEARCH(("10"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A151">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A172">
       <formula1>OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D"))</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/rpe_primera.xlsx
+++ b/data/rpe_primera.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="49">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>Martes</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>1 muy muy fácil</t>
   </si>
 </sst>
 </file>
@@ -370,7 +376,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H172" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H193" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la semana" id="2"/>
@@ -640,11 +646,11 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="str">
-        <f t="shared" ref="E2:E73" si="1">left(D2)</f>
+        <f t="shared" ref="E2:E94" si="1">left(D2)</f>
         <v>3</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F73" si="2">E2*1</f>
+        <f t="shared" ref="F2:F94" si="2">E2*1</f>
         <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2643,67 +2649,592 @@
       </c>
     </row>
     <row r="74" ht="22.5" customHeight="1">
-      <c r="A74" s="10"/>
+      <c r="A74" s="9">
+        <v>46017.80410641203</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F74" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="75" ht="22.5" customHeight="1">
-      <c r="A75" s="10"/>
+      <c r="A75" s="9">
+        <v>46017.804205671295</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F75" s="8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="76" ht="22.5" customHeight="1">
-      <c r="A76" s="10"/>
+      <c r="A76" s="9">
+        <v>46017.804449421295</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F76" s="8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="77" ht="22.5" customHeight="1">
-      <c r="A77" s="10"/>
+      <c r="A77" s="9">
+        <v>46017.80477012732</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F77" s="8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="78" ht="22.5" customHeight="1">
-      <c r="A78" s="10"/>
+      <c r="A78" s="9">
+        <v>46017.804930370374</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F78" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="79" ht="22.5" customHeight="1">
-      <c r="A79" s="10"/>
+      <c r="A79" s="9">
+        <v>46017.80500771991</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F79" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="80" ht="22.5" customHeight="1">
-      <c r="A80" s="10"/>
+      <c r="A80" s="9">
+        <v>46017.805201446754</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F80" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="81" ht="22.5" customHeight="1">
-      <c r="A81" s="10"/>
+      <c r="A81" s="9">
+        <v>46017.80521135416</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F81" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="82" ht="22.5" customHeight="1">
-      <c r="A82" s="10"/>
+      <c r="A82" s="9">
+        <v>46017.80543570602</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F82" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="83" ht="22.5" customHeight="1">
-      <c r="A83" s="10"/>
+      <c r="A83" s="9">
+        <v>46017.80550659722</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F83" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="84" ht="22.5" customHeight="1">
-      <c r="A84" s="10"/>
+      <c r="A84" s="9">
+        <v>46017.80561487269</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F84" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="85" ht="22.5" customHeight="1">
-      <c r="A85" s="10"/>
+      <c r="A85" s="9">
+        <v>46017.805771354164</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F85" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="86" ht="22.5" customHeight="1">
-      <c r="A86" s="10"/>
+      <c r="A86" s="9">
+        <v>46017.805866678245</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E86" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F86" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="87" ht="22.5" customHeight="1">
-      <c r="A87" s="10"/>
+      <c r="A87" s="9">
+        <v>46017.80624320602</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F87" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="88" ht="22.5" customHeight="1">
-      <c r="A88" s="10"/>
+      <c r="A88" s="9">
+        <v>46017.80635828704</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F88" s="8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="89" ht="22.5" customHeight="1">
-      <c r="A89" s="10"/>
+      <c r="A89" s="9">
+        <v>46017.806525486114</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F89" s="8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="90" ht="22.5" customHeight="1">
-      <c r="A90" s="10"/>
+      <c r="A90" s="9">
+        <v>46017.806758252314</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F90" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="91" ht="22.5" customHeight="1">
-      <c r="A91" s="10"/>
+      <c r="A91" s="9">
+        <v>46017.8070070949</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F91" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="92" ht="22.5" customHeight="1">
-      <c r="A92" s="10"/>
+      <c r="A92" s="9">
+        <v>46017.807026180555</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F92" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="93" ht="22.5" customHeight="1">
-      <c r="A93" s="10"/>
+      <c r="A93" s="9">
+        <v>46017.807400011574</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F93" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="94" ht="22.5" customHeight="1">
-      <c r="A94" s="10"/>
+      <c r="A94" s="9">
+        <v>46017.807530983795</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F94" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="95" ht="22.5" customHeight="1">
       <c r="A95" s="10"/>
@@ -2939,29 +3470,92 @@
     <row r="172" ht="22.5" customHeight="1">
       <c r="A172" s="10"/>
     </row>
+    <row r="173" ht="22.5" customHeight="1">
+      <c r="A173" s="10"/>
+    </row>
+    <row r="174" ht="22.5" customHeight="1">
+      <c r="A174" s="10"/>
+    </row>
+    <row r="175" ht="22.5" customHeight="1">
+      <c r="A175" s="10"/>
+    </row>
+    <row r="176" ht="22.5" customHeight="1">
+      <c r="A176" s="10"/>
+    </row>
+    <row r="177" ht="22.5" customHeight="1">
+      <c r="A177" s="10"/>
+    </row>
+    <row r="178" ht="22.5" customHeight="1">
+      <c r="A178" s="10"/>
+    </row>
+    <row r="179" ht="22.5" customHeight="1">
+      <c r="A179" s="10"/>
+    </row>
+    <row r="180" ht="22.5" customHeight="1">
+      <c r="A180" s="10"/>
+    </row>
+    <row r="181" ht="22.5" customHeight="1">
+      <c r="A181" s="10"/>
+    </row>
+    <row r="182" ht="22.5" customHeight="1">
+      <c r="A182" s="10"/>
+    </row>
+    <row r="183" ht="22.5" customHeight="1">
+      <c r="A183" s="10"/>
+    </row>
+    <row r="184" ht="22.5" customHeight="1">
+      <c r="A184" s="10"/>
+    </row>
+    <row r="185" ht="22.5" customHeight="1">
+      <c r="A185" s="10"/>
+    </row>
+    <row r="186" ht="22.5" customHeight="1">
+      <c r="A186" s="10"/>
+    </row>
+    <row r="187" ht="22.5" customHeight="1">
+      <c r="A187" s="10"/>
+    </row>
+    <row r="188" ht="22.5" customHeight="1">
+      <c r="A188" s="10"/>
+    </row>
+    <row r="189" ht="22.5" customHeight="1">
+      <c r="A189" s="10"/>
+    </row>
+    <row r="190" ht="22.5" customHeight="1">
+      <c r="A190" s="10"/>
+    </row>
+    <row r="191" ht="22.5" customHeight="1">
+      <c r="A191" s="10"/>
+    </row>
+    <row r="192" ht="22.5" customHeight="1">
+      <c r="A192" s="10"/>
+    </row>
+    <row r="193" ht="22.5" customHeight="1">
+      <c r="A193" s="10"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1 D2:D172">
+  <conditionalFormatting sqref="C1 D2:D193">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="7">
       <formula>NOT(ISERROR(SEARCH(("7"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1 D2:D172">
+  <conditionalFormatting sqref="C1 D2:D193">
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="8">
       <formula>NOT(ISERROR(SEARCH(("8"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1 D2:D172">
+  <conditionalFormatting sqref="C1 D2:D193">
     <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="9">
       <formula>NOT(ISERROR(SEARCH(("9"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1 D2:D172">
+  <conditionalFormatting sqref="C1 D2:D193">
     <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="10">
       <formula>NOT(ISERROR(SEARCH(("10"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A172">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A193">
       <formula1>OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D"))</formula1>
     </dataValidation>
   </dataValidations>
